--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chubu\OneDrive\Рабочий стол\news_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA1DF5-8E4E-4784-A247-8D13085E8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B28B8D-171C-49E3-9DA7-AFCB566BE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A682E37-E9D9-42F4-9CBF-E7BE407AB4B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>text</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
+  </si>
+  <si>
+    <t>Первая ночная неконференция от Слёрма «IT-голики» — для всех, кто в айти</t>
+  </si>
+  <si>
+    <t>Презентация Apple, Google врывается в чужой суд, Xiaomi и Huawei договариваются о сотрудничестве: дайджест недели</t>
+  </si>
+  <si>
+    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
+  </si>
+  <si>
+    <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
+  </si>
+  <si>
+    <t>Глава СНБО Данилов перечислил меры помощи Украины для партнеров</t>
+  </si>
+  <si>
+    <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
+  </si>
+  <si>
+    <t>Новости шоу-бизнеса. Оправдания Галкина, Меладзе и Лорак не дают вернуться и другие</t>
   </si>
 </sst>
 </file>
@@ -407,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519A997C-5155-4E9B-A480-39047AEA511E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,6 +507,81 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
